--- a/biology/Botanique/Argyroderma/Argyroderma.xlsx
+++ b/biology/Botanique/Argyroderma/Argyroderma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argyroderma N.E.Br. est un genre de plantes succulentes de la famille des Aizoaceae[1]. Il compte environ 50 espèces originaire d'Afrique du Sud.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyroderma N.E.Br. est un genre de plantes succulentes de la famille des Aizoaceae. Il compte environ 50 espèces originaire d'Afrique du Sud.
 Le nom provient du grec Argyro (=argenté) et Derma (=peau)
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les espèces du genre proviennent d'une petite région située à l'ouest de l'Afrique du Sud et connue sous le nom de "Knersvlakte" (en). C'est une région très aride de sables à quartzite avec quelques pluies d'hiver.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces plantes font partie de celles connues sous le nom de pierre vivante, car leurs petites feuilles très succulentes, généralement acaules et bleu-vert ressemblent à de petites pierres. Elles forment de petits groupes de quelques sujets avec des feuilles organisées par paires, habituellement cylindriques ou en forme d'œufs et fissurées au centre. Chaque tige porte seulement 2 feuilles par saison. Chez certaines espèces, les anciennes feuilles persistent et sèchent et servent de support aux nouvelles feuilles. Les fleurs semblables à des marguerites solitaires, souvent blanches, mais parfois jaunes ou violettes, apparaissent dans la fente entre deux feuilles.
 </t>
@@ -574,7 +590,9 @@
           <t>Mode de culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme la plupart des Aizoaceae, elles craignent surtout l'excès d'arrosage qui provoque l'éclatement des feuilles. Elles demandent un sol minéral très bien drainé et une exposition aussi ensoleillée que possible. Comme beaucoup de plantes originaires d'Afrique du Sud, elles ont gardé une croissance hivernale. Arroser seulement et modérément en fin d'automne et début d'hiver avec une température ne descendant pas en dessous de 5 °C. Ne pas arroser en été et ne pas s'inquiéter du dessèchement des feuilles.
 On les reproduit par semis ou division des touffes avec précaution pour éviter la pourriture.
@@ -606,7 +624,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Argyroderma amoenum Schwantes
 Argyroderma angustipetalum L.Bolus
@@ -668,9 +688,43 @@
 Argyroderma subrotundum L.Bolus
 Argyroderma testiculare N.E.Br.
 Argyroderma theartii van Jaarsv.
-Argyroderma villetii L.Bolus
-Liste des sous-genres
-Argyroderma subgen. Argyroderma
+Argyroderma villetii L.Bolus</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Argyroderma</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argyroderma</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des sous-genres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Argyroderma subgen. Argyroderma
 Argyroderma subgen. Roodia (N.E.Br.) H.Hartmann</t>
         </is>
       </c>
